--- a/Code/Results/Cases/Case_3_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.96030249594259</v>
+        <v>11.3371691897672</v>
       </c>
       <c r="C2">
-        <v>7.776433642162996</v>
+        <v>9.90525935230265</v>
       </c>
       <c r="D2">
-        <v>6.329890784892614</v>
+        <v>9.585710157139934</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.55756480638895</v>
+        <v>33.88906282279513</v>
       </c>
       <c r="G2">
-        <v>23.53487965863125</v>
+        <v>35.45348869832786</v>
       </c>
       <c r="H2">
-        <v>9.658944422265362</v>
+        <v>16.1438656118313</v>
       </c>
       <c r="I2">
-        <v>15.96504587696767</v>
+        <v>26.02771544719502</v>
       </c>
       <c r="J2">
-        <v>6.448439682482523</v>
+        <v>10.94858464364165</v>
       </c>
       <c r="K2">
-        <v>11.09687848792735</v>
+        <v>8.36243219960976</v>
       </c>
       <c r="L2">
-        <v>7.025287092606517</v>
+        <v>11.65678769520694</v>
       </c>
       <c r="M2">
-        <v>9.794475128224875</v>
+        <v>14.63566406604197</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.71608484596184</v>
+        <v>25.42685309591087</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11784503050177</v>
+        <v>11.08306694070348</v>
       </c>
       <c r="C3">
-        <v>7.734726536148605</v>
+        <v>9.896947129081033</v>
       </c>
       <c r="D3">
-        <v>6.170547387792834</v>
+        <v>9.575887373901296</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.60003645908878</v>
+        <v>33.99471573617401</v>
       </c>
       <c r="G3">
-        <v>23.63344758944872</v>
+        <v>35.59641863424952</v>
       </c>
       <c r="H3">
-        <v>9.759327018089918</v>
+        <v>16.19444284497173</v>
       </c>
       <c r="I3">
-        <v>16.18489594660828</v>
+        <v>26.12881362803258</v>
       </c>
       <c r="J3">
-        <v>6.504279309308214</v>
+        <v>10.97034501920068</v>
       </c>
       <c r="K3">
-        <v>10.53918382615144</v>
+        <v>8.164907029856039</v>
       </c>
       <c r="L3">
-        <v>6.942443395193274</v>
+        <v>11.66285455360478</v>
       </c>
       <c r="M3">
-        <v>9.455027520611226</v>
+        <v>14.59411688561036</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.86145703925536</v>
+        <v>25.51901394877637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56961877305378</v>
+        <v>10.92520777436292</v>
       </c>
       <c r="C4">
-        <v>7.709807650902619</v>
+        <v>9.892176296860681</v>
       </c>
       <c r="D4">
-        <v>6.072842616466289</v>
+        <v>9.571117873090158</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.64147238454837</v>
+        <v>34.06586760905979</v>
       </c>
       <c r="G4">
-        <v>23.71623696661845</v>
+        <v>35.69248845722553</v>
       </c>
       <c r="H4">
-        <v>9.82532715505633</v>
+        <v>16.22755935203281</v>
       </c>
       <c r="I4">
-        <v>16.32836441119035</v>
+        <v>26.19483628715333</v>
       </c>
       <c r="J4">
-        <v>6.539834842147918</v>
+        <v>10.98444201173618</v>
       </c>
       <c r="K4">
-        <v>10.18056418060361</v>
+        <v>8.041762038398742</v>
       </c>
       <c r="L4">
-        <v>6.893376836821698</v>
+        <v>11.66781448735228</v>
       </c>
       <c r="M4">
-        <v>9.242653966437226</v>
+        <v>14.57005952585583</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.96068235763906</v>
+        <v>25.57981719421065</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33840940944638</v>
+        <v>10.8605026842988</v>
       </c>
       <c r="C5">
-        <v>7.699827908934513</v>
+        <v>9.890316714287302</v>
       </c>
       <c r="D5">
-        <v>6.033116220767885</v>
+        <v>9.569493567930889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.66210302836876</v>
+        <v>34.09644087919796</v>
       </c>
       <c r="G5">
-        <v>23.75535208675522</v>
+        <v>35.73372328091618</v>
       </c>
       <c r="H5">
-        <v>9.853297842498487</v>
+        <v>16.24157373763847</v>
       </c>
       <c r="I5">
-        <v>16.38891297352835</v>
+        <v>26.2227348497478</v>
       </c>
       <c r="J5">
-        <v>6.554646018581358</v>
+        <v>10.99037222945737</v>
       </c>
       <c r="K5">
-        <v>10.03044420653029</v>
+        <v>7.991176813485596</v>
       </c>
       <c r="L5">
-        <v>6.873848447138788</v>
+        <v>11.67014707063976</v>
       </c>
       <c r="M5">
-        <v>9.155240019827456</v>
+        <v>14.5606273581853</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.00354350321162</v>
+        <v>25.60565534989157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29954553622147</v>
+        <v>10.84973832229361</v>
       </c>
       <c r="C6">
-        <v>7.698181388178607</v>
+        <v>9.890013064677694</v>
       </c>
       <c r="D6">
-        <v>6.026526726781091</v>
+        <v>9.569243195009056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.66575150403978</v>
+        <v>34.10161284265658</v>
       </c>
       <c r="G6">
-        <v>23.76216547057816</v>
+        <v>35.74069613507901</v>
       </c>
       <c r="H6">
-        <v>9.858006659621532</v>
+        <v>16.24393219012627</v>
       </c>
       <c r="I6">
-        <v>16.3990915499746</v>
+        <v>26.22742743862392</v>
       </c>
       <c r="J6">
-        <v>6.557124930346443</v>
+        <v>10.99136816073579</v>
       </c>
       <c r="K6">
-        <v>10.00527961705455</v>
+        <v>7.982754847497656</v>
       </c>
       <c r="L6">
-        <v>6.870634349192395</v>
+        <v>11.67055322434995</v>
       </c>
       <c r="M6">
-        <v>9.140676285087466</v>
+        <v>14.55908375819112</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.01080482367692</v>
+        <v>25.61000980295849</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56653221785275</v>
+        <v>10.9243365454944</v>
       </c>
       <c r="C7">
-        <v>7.709672350427662</v>
+        <v>9.892150874331387</v>
       </c>
       <c r="D7">
-        <v>6.072306416722348</v>
+        <v>9.571094671706563</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.64173560727683</v>
+        <v>34.06627354173774</v>
       </c>
       <c r="G7">
-        <v>23.71674300436099</v>
+        <v>35.69303612547319</v>
       </c>
       <c r="H7">
-        <v>9.825700053037382</v>
+        <v>16.22774625207231</v>
       </c>
       <c r="I7">
-        <v>16.32917261303815</v>
+        <v>26.19520851168737</v>
       </c>
       <c r="J7">
-        <v>6.54003328347879</v>
+        <v>10.98452123666148</v>
       </c>
       <c r="K7">
-        <v>10.17855558737535</v>
+        <v>8.041081369110696</v>
       </c>
       <c r="L7">
-        <v>6.893111562843032</v>
+        <v>11.66784468356255</v>
       </c>
       <c r="M7">
-        <v>9.241478422451292</v>
+        <v>14.5699308087118</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.96125067805019</v>
+        <v>25.58016136310912</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67623479297383</v>
+        <v>11.24998717261715</v>
       </c>
       <c r="C8">
-        <v>7.761910862918526</v>
+        <v>9.902324719526847</v>
       </c>
       <c r="D8">
-        <v>6.274954457952288</v>
+        <v>9.58206265216389</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.56895145227449</v>
+        <v>33.92418784505877</v>
       </c>
       <c r="G8">
-        <v>23.56411043008073</v>
+        <v>35.50104371619253</v>
       </c>
       <c r="H8">
-        <v>9.692636418581754</v>
+        <v>16.16087709731183</v>
       </c>
       <c r="I8">
-        <v>16.03905992456383</v>
+        <v>26.06175532674203</v>
       </c>
       <c r="J8">
-        <v>6.467431294093498</v>
+        <v>10.95593515699898</v>
       </c>
       <c r="K8">
-        <v>10.90799584296616</v>
+        <v>8.294750944358452</v>
       </c>
       <c r="L8">
-        <v>6.996357721846682</v>
+        <v>11.6586237786041</v>
       </c>
       <c r="M8">
-        <v>9.678324366024622</v>
+        <v>14.62104080473797</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.76409131560313</v>
+        <v>25.45775520483048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.60783140460331</v>
+        <v>11.87039068352641</v>
       </c>
       <c r="C9">
-        <v>7.869757245522186</v>
+        <v>9.92487990396501</v>
       </c>
       <c r="D9">
-        <v>6.671064642411411</v>
+        <v>9.613487421960528</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.55325023405927</v>
+        <v>33.69543364556018</v>
       </c>
       <c r="G9">
-        <v>23.45140730769301</v>
+        <v>35.19066442004505</v>
       </c>
       <c r="H9">
-        <v>9.467422786068781</v>
+        <v>16.04607698675585</v>
       </c>
       <c r="I9">
-        <v>15.53981703287331</v>
+        <v>25.83133184152172</v>
       </c>
       <c r="J9">
-        <v>6.335007867636247</v>
+        <v>10.90569533590507</v>
       </c>
       <c r="K9">
-        <v>12.20678736445055</v>
+        <v>8.774677625495181</v>
       </c>
       <c r="L9">
-        <v>7.21245222977944</v>
+        <v>11.65030109678377</v>
       </c>
       <c r="M9">
-        <v>10.4987754512888</v>
+        <v>14.73251712971418</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.46033080557718</v>
+        <v>25.25116237293947</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87964138697809</v>
+        <v>12.31058206263785</v>
       </c>
       <c r="C10">
-        <v>7.95221146159227</v>
+        <v>9.942989760780724</v>
       </c>
       <c r="D10">
-        <v>6.958377669839113</v>
+        <v>9.642485950419131</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.62610912368391</v>
+        <v>33.557827073758</v>
       </c>
       <c r="G10">
-        <v>23.49581903809787</v>
+        <v>35.00317429638197</v>
       </c>
       <c r="H10">
-        <v>9.325374131259281</v>
+        <v>15.97164699467459</v>
       </c>
       <c r="I10">
-        <v>15.21914655528565</v>
+        <v>25.6810411666647</v>
       </c>
       <c r="J10">
-        <v>6.243601118089663</v>
+        <v>10.87229876700462</v>
       </c>
       <c r="K10">
-        <v>13.07760244171402</v>
+        <v>9.11319897482937</v>
       </c>
       <c r="L10">
-        <v>7.378621459797634</v>
+        <v>11.65008275720949</v>
       </c>
       <c r="M10">
-        <v>11.07380705625574</v>
+        <v>14.82089143141419</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.2931948402733</v>
+        <v>25.11975678627591</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42665292159182</v>
+        <v>12.50657901795763</v>
       </c>
       <c r="C11">
-        <v>7.990406095184903</v>
+        <v>9.951551808233626</v>
       </c>
       <c r="D11">
-        <v>7.08772425531304</v>
+        <v>9.656929843106116</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.67902324119541</v>
+        <v>33.50185005425134</v>
       </c>
       <c r="G11">
-        <v>23.54645779208535</v>
+        <v>34.92673313044366</v>
       </c>
       <c r="H11">
-        <v>9.266236773270546</v>
+        <v>15.93993085597388</v>
       </c>
       <c r="I11">
-        <v>15.08419569152774</v>
+        <v>25.61678245482801</v>
       </c>
       <c r="J11">
-        <v>6.203255882333093</v>
+        <v>10.85786222024164</v>
       </c>
       <c r="K11">
-        <v>13.45523225894163</v>
+        <v>9.263500648499715</v>
       </c>
       <c r="L11">
-        <v>7.455626513552836</v>
+        <v>11.6512514029179</v>
       </c>
       <c r="M11">
-        <v>11.32839879725585</v>
+        <v>14.86241352469757</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.2306125461653</v>
+        <v>25.06439988978362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.62929252373748</v>
+        <v>12.58012139541361</v>
       </c>
       <c r="C12">
-        <v>8.004966685441302</v>
+        <v>9.954839631059595</v>
       </c>
       <c r="D12">
-        <v>7.136468433368419</v>
+        <v>9.662576495430336</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.70201747514708</v>
+        <v>33.48160578986132</v>
       </c>
       <c r="G12">
-        <v>23.57023271571348</v>
+        <v>34.8990632164663</v>
       </c>
       <c r="H12">
-        <v>9.244667969017824</v>
+        <v>15.92822824021833</v>
       </c>
       <c r="I12">
-        <v>15.03475012796864</v>
+        <v>25.59303935511766</v>
       </c>
       <c r="J12">
-        <v>6.188152762672415</v>
+        <v>10.85250364071122</v>
       </c>
       <c r="K12">
-        <v>13.59554715984521</v>
+        <v>9.319836560963775</v>
       </c>
       <c r="L12">
-        <v>7.484972963460046</v>
+        <v>11.65187511616354</v>
       </c>
       <c r="M12">
-        <v>11.42373275467507</v>
+        <v>14.87831892049697</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.20896094687084</v>
+        <v>25.04407324848748</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.58585012177034</v>
+        <v>12.56431386337275</v>
       </c>
       <c r="C13">
-        <v>8.001826505286058</v>
+        <v>9.954129529302175</v>
       </c>
       <c r="D13">
-        <v>7.125981650756026</v>
+        <v>9.661352562486185</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.69693197497334</v>
+        <v>33.48592335491269</v>
       </c>
       <c r="G13">
-        <v>23.56490435398192</v>
+        <v>34.90496558065119</v>
       </c>
       <c r="H13">
-        <v>9.249275873718219</v>
+        <v>15.9307349349768</v>
       </c>
       <c r="I13">
-        <v>15.04532393511984</v>
+        <v>25.59812661325674</v>
       </c>
       <c r="J13">
-        <v>6.191397766318277</v>
+        <v>10.85365290027383</v>
       </c>
       <c r="K13">
-        <v>13.56544755735558</v>
+        <v>9.307730150846449</v>
       </c>
       <c r="L13">
-        <v>7.478644661650362</v>
+        <v>11.65173274974433</v>
       </c>
       <c r="M13">
-        <v>11.40324965873514</v>
+        <v>14.87488544871101</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.21353111331749</v>
+        <v>25.04842267310392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44341422660782</v>
+        <v>12.51264333345341</v>
       </c>
       <c r="C14">
-        <v>7.991602065600157</v>
+        <v>9.951821392053812</v>
       </c>
       <c r="D14">
-        <v>7.091739435895025</v>
+        <v>9.657390865779975</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.68085509206093</v>
+        <v>33.50016544154845</v>
       </c>
       <c r="G14">
-        <v>23.54832034925815</v>
+        <v>34.92443109947855</v>
       </c>
       <c r="H14">
-        <v>9.264445533413147</v>
+        <v>15.93896191273839</v>
       </c>
       <c r="I14">
-        <v>15.08009403336842</v>
+        <v>25.61481726911771</v>
       </c>
       <c r="J14">
-        <v>6.202009854842103</v>
+        <v>10.85741920016839</v>
       </c>
       <c r="K14">
-        <v>13.46682997510825</v>
+        <v>9.268147329869686</v>
       </c>
       <c r="L14">
-        <v>7.458037226049624</v>
+        <v>11.6512990920637</v>
       </c>
       <c r="M14">
-        <v>11.33626387179602</v>
+        <v>14.86371847236604</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.22878956646714</v>
+        <v>25.0627148609332</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.35558289392985</v>
+        <v>12.48090353270162</v>
       </c>
       <c r="C15">
-        <v>7.985351905398345</v>
+        <v>9.950413494868943</v>
       </c>
       <c r="D15">
-        <v>7.070733103429753</v>
+        <v>9.65498717898967</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.67139592065806</v>
+        <v>33.5090132679179</v>
       </c>
       <c r="G15">
-        <v>23.53876758138983</v>
+        <v>34.93652067784216</v>
       </c>
       <c r="H15">
-        <v>9.273846006109048</v>
+        <v>15.94404121834487</v>
       </c>
       <c r="I15">
-        <v>15.10161027417103</v>
+        <v>25.62511763154972</v>
       </c>
       <c r="J15">
-        <v>6.208532732347848</v>
+        <v>10.85974024890063</v>
       </c>
       <c r="K15">
-        <v>13.40607358577835</v>
+        <v>9.243824780871218</v>
       </c>
       <c r="L15">
-        <v>7.445438340005163</v>
+        <v>11.65105702281168</v>
       </c>
       <c r="M15">
-        <v>11.29509134674692</v>
+        <v>14.85690182327698</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.23840582544748</v>
+        <v>25.07155204649965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.84326105576393</v>
+        <v>12.29768191513495</v>
       </c>
       <c r="C16">
-        <v>7.949729020904256</v>
+        <v>9.942436641208722</v>
       </c>
       <c r="D16">
-        <v>6.949893658365122</v>
+        <v>9.641566953268978</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.62305870150809</v>
+        <v>33.56161861603638</v>
       </c>
       <c r="G16">
-        <v>23.49314131256996</v>
+        <v>35.00834833550808</v>
       </c>
       <c r="H16">
-        <v>9.329352293416283</v>
+        <v>15.97376278875798</v>
       </c>
       <c r="I16">
-        <v>15.22819294176266</v>
+        <v>25.68532325917415</v>
       </c>
       <c r="J16">
-        <v>6.246262392280214</v>
+        <v>10.87325739823253</v>
       </c>
       <c r="K16">
-        <v>13.05254877860848</v>
+        <v>9.10329781095354</v>
       </c>
       <c r="L16">
-        <v>7.373615988949121</v>
+        <v>11.65003180040367</v>
       </c>
       <c r="M16">
-        <v>11.05702206290755</v>
+        <v>14.81820375475771</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.29756491093629</v>
+        <v>25.12346345151116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52091322571914</v>
+        <v>12.18414439907962</v>
       </c>
       <c r="C17">
-        <v>7.928050074735797</v>
+        <v>9.93762532317494</v>
       </c>
       <c r="D17">
-        <v>6.875384859539982</v>
+        <v>9.633652727643447</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.59855110599897</v>
+        <v>33.59558676923635</v>
       </c>
       <c r="G17">
-        <v>23.47310701981582</v>
+        <v>35.05468177565258</v>
       </c>
       <c r="H17">
-        <v>9.364832928834229</v>
+        <v>15.99254439236582</v>
       </c>
       <c r="I17">
-        <v>15.30870420594194</v>
+        <v>25.72330948687362</v>
       </c>
       <c r="J17">
-        <v>6.269722796626214</v>
+        <v>10.88174297207</v>
       </c>
       <c r="K17">
-        <v>12.83091263763614</v>
+        <v>9.01610701008843</v>
       </c>
       <c r="L17">
-        <v>7.329905245373604</v>
+        <v>11.64972680994607</v>
       </c>
       <c r="M17">
-        <v>10.9091310889548</v>
+        <v>14.79479627736466</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.33738045810232</v>
+        <v>25.15644166620653</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.33253633288149</v>
+        <v>12.1184444148765</v>
       </c>
       <c r="C18">
-        <v>7.91564555240243</v>
+        <v>9.934888516995183</v>
       </c>
       <c r="D18">
-        <v>6.832404235856554</v>
+        <v>9.629218738461214</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.58630924603428</v>
+        <v>33.61574749367971</v>
       </c>
       <c r="G18">
-        <v>23.46443567551885</v>
+        <v>35.08216421507787</v>
       </c>
       <c r="H18">
-        <v>9.38575398871463</v>
+        <v>16.00354875849798</v>
       </c>
       <c r="I18">
-        <v>15.35603469052666</v>
+        <v>25.74554497975896</v>
       </c>
       <c r="J18">
-        <v>6.283333136278199</v>
+        <v>10.88669480792204</v>
       </c>
       <c r="K18">
-        <v>12.70169213956833</v>
+        <v>8.965612203959452</v>
       </c>
       <c r="L18">
-        <v>7.304898066448623</v>
+        <v>11.6496708078176</v>
       </c>
       <c r="M18">
-        <v>10.82341336546653</v>
+        <v>14.78145766736109</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.36154008187669</v>
+        <v>25.17582589722325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.26824389004677</v>
+        <v>12.09613358768997</v>
       </c>
       <c r="C19">
-        <v>7.911456743125955</v>
+        <v>9.933967156309299</v>
       </c>
       <c r="D19">
-        <v>6.817831583228541</v>
+        <v>9.62773783305161</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.58247930838424</v>
+        <v>33.62268056317478</v>
       </c>
       <c r="G19">
-        <v>23.46198261382488</v>
+        <v>35.09161217773649</v>
       </c>
       <c r="H19">
-        <v>9.392924619382899</v>
+        <v>16.00730930218928</v>
       </c>
       <c r="I19">
-        <v>15.37223309411209</v>
+        <v>25.7531399918848</v>
       </c>
       <c r="J19">
-        <v>6.28796146953698</v>
+        <v>10.88838364955678</v>
       </c>
       <c r="K19">
-        <v>12.65764210391051</v>
+        <v>8.948457838994049</v>
       </c>
       <c r="L19">
-        <v>7.296454616783783</v>
+        <v>11.64967239141531</v>
       </c>
       <c r="M19">
-        <v>10.79428062185899</v>
+        <v>14.77696310850781</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.36993294923138</v>
+        <v>25.18246051312446</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55553494488325</v>
+        <v>12.19627216500979</v>
       </c>
       <c r="C20">
-        <v>7.930351157487976</v>
+        <v>9.938134342942679</v>
       </c>
       <c r="D20">
-        <v>6.883329715016369</v>
+        <v>9.634483012682852</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.60096723669528</v>
+        <v>33.59190630140314</v>
       </c>
       <c r="G20">
-        <v>23.47494291278113</v>
+        <v>35.04966329257713</v>
       </c>
       <c r="H20">
-        <v>9.361002546526027</v>
+        <v>15.9905241885409</v>
       </c>
       <c r="I20">
-        <v>15.30002721460196</v>
+        <v>25.71922575838396</v>
       </c>
       <c r="J20">
-        <v>6.267213357218174</v>
+        <v>10.88083230687315</v>
       </c>
       <c r="K20">
-        <v>12.85468659552384</v>
+        <v>9.025424689304968</v>
       </c>
       <c r="L20">
-        <v>7.334544575442806</v>
+        <v>11.64974692537045</v>
       </c>
       <c r="M20">
-        <v>10.92494262897552</v>
+        <v>14.7972751889327</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.33301094400313</v>
+        <v>25.15288801956042</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48537300124229</v>
+        <v>12.5278391110563</v>
       </c>
       <c r="C21">
-        <v>7.994602607141342</v>
+        <v>9.952498119428704</v>
       </c>
       <c r="D21">
-        <v>7.101803939985468</v>
+        <v>9.658549731459628</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.68549612528097</v>
+        <v>33.49595632389968</v>
       </c>
       <c r="G21">
-        <v>23.5530649199138</v>
+        <v>34.91867892275216</v>
       </c>
       <c r="H21">
-        <v>9.259967130515662</v>
+        <v>15.93653710561963</v>
       </c>
       <c r="I21">
-        <v>15.06983550059799</v>
+        <v>25.60989880372098</v>
       </c>
       <c r="J21">
-        <v>6.198888108889674</v>
+        <v>10.85631001285038</v>
       </c>
       <c r="K21">
-        <v>13.49586937712568</v>
+        <v>9.279789877542909</v>
       </c>
       <c r="L21">
-        <v>7.464085207043311</v>
+        <v>11.65142156039685</v>
       </c>
       <c r="M21">
-        <v>11.3559688807223</v>
+        <v>14.86699361230314</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.22425130905312</v>
+        <v>25.0584996414725</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.06685288846609</v>
+        <v>12.74056140365699</v>
       </c>
       <c r="C22">
-        <v>8.037160088234673</v>
+        <v>9.962150769448765</v>
       </c>
       <c r="D22">
-        <v>7.243193847026422</v>
+        <v>9.675309283138393</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.75802544332405</v>
+        <v>33.43880274083715</v>
       </c>
       <c r="G22">
-        <v>23.63102674719887</v>
+        <v>34.8405164718116</v>
       </c>
       <c r="H22">
-        <v>9.198764021352954</v>
+        <v>15.90304612498974</v>
       </c>
       <c r="I22">
-        <v>14.92909864758582</v>
+        <v>25.54188765361788</v>
       </c>
       <c r="J22">
-        <v>6.155250730004258</v>
+        <v>10.8409139053347</v>
       </c>
       <c r="K22">
-        <v>13.89926187797904</v>
+        <v>9.442631187443855</v>
       </c>
       <c r="L22">
-        <v>7.549825815777919</v>
+        <v>11.65357146437324</v>
       </c>
       <c r="M22">
-        <v>11.63138176547805</v>
+        <v>14.91361493384658</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.16515785037928</v>
+        <v>25.00051748972949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.75889393465526</v>
+        <v>12.62741200482818</v>
       </c>
       <c r="C23">
-        <v>8.014395082359609</v>
+        <v>9.9569750464418</v>
       </c>
       <c r="D23">
-        <v>7.167871953668326</v>
+        <v>9.666271133467905</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.71769692257833</v>
+        <v>33.46879809449519</v>
       </c>
       <c r="G23">
-        <v>23.58688386685836</v>
+        <v>34.88155081907949</v>
       </c>
       <c r="H23">
-        <v>9.230974380826629</v>
+        <v>15.92075701589911</v>
       </c>
       <c r="I23">
-        <v>15.00329362088647</v>
+        <v>25.57787189251289</v>
       </c>
       <c r="J23">
-        <v>6.178448760691636</v>
+        <v>10.84907354066638</v>
       </c>
       <c r="K23">
-        <v>13.68540215587795</v>
+        <v>9.35604607611784</v>
       </c>
       <c r="L23">
-        <v>7.503971299974108</v>
+        <v>11.6523278460095</v>
       </c>
       <c r="M23">
-        <v>11.48498430731812</v>
+        <v>14.88863828811185</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.1955616516604</v>
+        <v>25.03112447764913</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53989198330632</v>
+        <v>12.19079052305799</v>
       </c>
       <c r="C24">
-        <v>7.929310654110765</v>
+        <v>9.937904123816578</v>
       </c>
       <c r="D24">
-        <v>6.87973829278719</v>
+        <v>9.634107279259243</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.59986915693379</v>
+        <v>33.59356827242474</v>
       </c>
       <c r="G24">
-        <v>23.47410405589437</v>
+        <v>35.05192951784501</v>
       </c>
       <c r="H24">
-        <v>9.36273263682204</v>
+        <v>15.99143687919657</v>
       </c>
       <c r="I24">
-        <v>15.30394683860935</v>
+        <v>25.72107077628305</v>
       </c>
       <c r="J24">
-        <v>6.268347492548728</v>
+        <v>10.88124379004678</v>
       </c>
       <c r="K24">
-        <v>12.84394399052532</v>
+        <v>9.021213307930385</v>
       </c>
       <c r="L24">
-        <v>7.33244675081083</v>
+        <v>11.64973745937068</v>
       </c>
       <c r="M24">
-        <v>10.91779638566899</v>
+        <v>14.79615410279952</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.33498245675372</v>
+        <v>25.15449330057833</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.11129266763272</v>
+        <v>11.70498801898848</v>
       </c>
       <c r="C25">
-        <v>7.840011068567746</v>
+        <v>9.918504324250042</v>
       </c>
       <c r="D25">
-        <v>6.564357806889919</v>
+        <v>9.603937836816906</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.54317307733107</v>
+        <v>33.75197230037421</v>
       </c>
       <c r="G25">
-        <v>23.46052100860976</v>
+        <v>35.26752682093635</v>
       </c>
       <c r="H25">
-        <v>9.52436380326211</v>
+        <v>16.07538955613201</v>
       </c>
       <c r="I25">
-        <v>15.66706241026943</v>
+        <v>25.89032597440346</v>
       </c>
       <c r="J25">
-        <v>6.369785289273251</v>
+        <v>10.91866705132892</v>
       </c>
       <c r="K25">
-        <v>11.86989962001528</v>
+        <v>8.647086134966191</v>
       </c>
       <c r="L25">
-        <v>7.152625653910423</v>
+        <v>11.65151307092506</v>
       </c>
       <c r="M25">
-        <v>10.28132765862754</v>
+        <v>14.70119423354038</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.53308282220329</v>
+        <v>25.30347184473472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.3371691897672</v>
+        <v>12.96030249594256</v>
       </c>
       <c r="C2">
-        <v>9.90525935230265</v>
+        <v>7.776433642163375</v>
       </c>
       <c r="D2">
-        <v>9.585710157139934</v>
+        <v>6.329890784892626</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.88906282279513</v>
+        <v>21.55756480638895</v>
       </c>
       <c r="G2">
-        <v>35.45348869832786</v>
+        <v>23.53487965863139</v>
       </c>
       <c r="H2">
-        <v>16.1438656118313</v>
+        <v>9.658944422265305</v>
       </c>
       <c r="I2">
-        <v>26.02771544719502</v>
+        <v>15.96504587696774</v>
       </c>
       <c r="J2">
-        <v>10.94858464364165</v>
+        <v>6.448439682482592</v>
       </c>
       <c r="K2">
-        <v>8.36243219960976</v>
+        <v>11.09687848792737</v>
       </c>
       <c r="L2">
-        <v>11.65678769520694</v>
+        <v>7.025287092606539</v>
       </c>
       <c r="M2">
-        <v>14.63566406604197</v>
+        <v>9.794475128224869</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.42685309591087</v>
+        <v>15.7160848459618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08306694070348</v>
+        <v>12.11784503050179</v>
       </c>
       <c r="C3">
-        <v>9.896947129081033</v>
+        <v>7.73472653614873</v>
       </c>
       <c r="D3">
-        <v>9.575887373901296</v>
+        <v>6.170547387792976</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.99471573617401</v>
+        <v>21.60003645908874</v>
       </c>
       <c r="G3">
-        <v>35.59641863424952</v>
+        <v>23.63344758944844</v>
       </c>
       <c r="H3">
-        <v>16.19444284497173</v>
+        <v>9.759327018089925</v>
       </c>
       <c r="I3">
-        <v>26.12881362803258</v>
+        <v>16.1848959466082</v>
       </c>
       <c r="J3">
-        <v>10.97034501920068</v>
+        <v>6.504279309308347</v>
       </c>
       <c r="K3">
-        <v>8.164907029856039</v>
+        <v>10.53918382615148</v>
       </c>
       <c r="L3">
-        <v>11.66285455360478</v>
+        <v>6.942443395193412</v>
       </c>
       <c r="M3">
-        <v>14.59411688561036</v>
+        <v>9.455027520611297</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.51901394877637</v>
+        <v>15.86145703925529</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.92520777436292</v>
+        <v>11.56961877305376</v>
       </c>
       <c r="C4">
-        <v>9.892176296860681</v>
+        <v>7.709807650902597</v>
       </c>
       <c r="D4">
-        <v>9.571117873090158</v>
+        <v>6.072842616466252</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.06586760905979</v>
+        <v>21.64147238454854</v>
       </c>
       <c r="G4">
-        <v>35.69248845722553</v>
+        <v>23.71623696661876</v>
       </c>
       <c r="H4">
-        <v>16.22755935203281</v>
+        <v>9.82532715505633</v>
       </c>
       <c r="I4">
-        <v>26.19483628715333</v>
+        <v>16.32836441119045</v>
       </c>
       <c r="J4">
-        <v>10.98444201173618</v>
+        <v>6.539834842147986</v>
       </c>
       <c r="K4">
-        <v>8.041762038398742</v>
+        <v>10.18056418060359</v>
       </c>
       <c r="L4">
-        <v>11.66781448735228</v>
+        <v>6.893376836821748</v>
       </c>
       <c r="M4">
-        <v>14.57005952585583</v>
+        <v>9.242653966437269</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.57981719421065</v>
+        <v>15.9606823576392</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.8605026842988</v>
+        <v>11.33840940944635</v>
       </c>
       <c r="C5">
-        <v>9.890316714287302</v>
+        <v>7.699827908934767</v>
       </c>
       <c r="D5">
-        <v>9.569493567930889</v>
+        <v>6.033116220767911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.09644087919796</v>
+        <v>21.66210302836864</v>
       </c>
       <c r="G5">
-        <v>35.73372328091618</v>
+        <v>23.75535208675509</v>
       </c>
       <c r="H5">
-        <v>16.24157373763847</v>
+        <v>9.853297842498421</v>
       </c>
       <c r="I5">
-        <v>26.2227348497478</v>
+        <v>16.38891297352832</v>
       </c>
       <c r="J5">
-        <v>10.99037222945737</v>
+        <v>6.554646018581424</v>
       </c>
       <c r="K5">
-        <v>7.991176813485596</v>
+        <v>10.03044420653027</v>
       </c>
       <c r="L5">
-        <v>11.67014707063976</v>
+        <v>6.873848447138845</v>
       </c>
       <c r="M5">
-        <v>14.5606273581853</v>
+        <v>9.15524001982749</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.60565534989157</v>
+        <v>16.00354350321154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.84973832229361</v>
+        <v>11.29954553622147</v>
       </c>
       <c r="C6">
-        <v>9.890013064677694</v>
+        <v>7.698181388178596</v>
       </c>
       <c r="D6">
-        <v>9.569243195009056</v>
+        <v>6.026526726781109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.10161284265658</v>
+        <v>21.66575150403994</v>
       </c>
       <c r="G6">
-        <v>35.74069613507901</v>
+        <v>23.76216547057837</v>
       </c>
       <c r="H6">
-        <v>16.24393219012627</v>
+        <v>9.858006659621596</v>
       </c>
       <c r="I6">
-        <v>26.22742743862392</v>
+        <v>16.39909154997482</v>
       </c>
       <c r="J6">
-        <v>10.99136816073579</v>
+        <v>6.557124930346639</v>
       </c>
       <c r="K6">
-        <v>7.982754847497656</v>
+        <v>10.00527961705455</v>
       </c>
       <c r="L6">
-        <v>11.67055322434995</v>
+        <v>6.870634349192467</v>
       </c>
       <c r="M6">
-        <v>14.55908375819112</v>
+        <v>9.140676285087528</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.61000980295849</v>
+        <v>16.01080482367707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.9243365454944</v>
+        <v>11.56653221785271</v>
       </c>
       <c r="C7">
-        <v>9.892150874331387</v>
+        <v>7.709672350427911</v>
       </c>
       <c r="D7">
-        <v>9.571094671706563</v>
+        <v>6.072306416722337</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.06627354173774</v>
+        <v>21.641735607277</v>
       </c>
       <c r="G7">
-        <v>35.69303612547319</v>
+        <v>23.71674300436134</v>
       </c>
       <c r="H7">
-        <v>16.22774625207231</v>
+        <v>9.825700053037387</v>
       </c>
       <c r="I7">
-        <v>26.19520851168737</v>
+        <v>16.32917261303835</v>
       </c>
       <c r="J7">
-        <v>10.98452123666148</v>
+        <v>6.540033283478926</v>
       </c>
       <c r="K7">
-        <v>8.041081369110696</v>
+        <v>10.17855558737534</v>
       </c>
       <c r="L7">
-        <v>11.66784468356255</v>
+        <v>6.893111562843049</v>
       </c>
       <c r="M7">
-        <v>14.5699308087118</v>
+        <v>9.241478422451324</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.58016136310912</v>
+        <v>15.96125067805035</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.24998717261715</v>
+        <v>12.67623479297385</v>
       </c>
       <c r="C8">
-        <v>9.902324719526847</v>
+        <v>7.76191086291851</v>
       </c>
       <c r="D8">
-        <v>9.58206265216389</v>
+        <v>6.274954457952369</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.92418784505877</v>
+        <v>21.56895145227456</v>
       </c>
       <c r="G8">
-        <v>35.50104371619253</v>
+        <v>23.56411043008075</v>
       </c>
       <c r="H8">
-        <v>16.16087709731183</v>
+        <v>9.692636418581765</v>
       </c>
       <c r="I8">
-        <v>26.06175532674203</v>
+        <v>16.03905992456385</v>
       </c>
       <c r="J8">
-        <v>10.95593515699898</v>
+        <v>6.467431294093534</v>
       </c>
       <c r="K8">
-        <v>8.294750944358452</v>
+        <v>10.90799584296617</v>
       </c>
       <c r="L8">
-        <v>11.6586237786041</v>
+        <v>6.996357721846727</v>
       </c>
       <c r="M8">
-        <v>14.62104080473797</v>
+        <v>9.678324366024619</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.45775520483048</v>
+        <v>15.76409131560317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.87039068352641</v>
+        <v>14.60783140460333</v>
       </c>
       <c r="C9">
-        <v>9.92487990396501</v>
+        <v>7.869757245522304</v>
       </c>
       <c r="D9">
-        <v>9.613487421960528</v>
+        <v>6.671064642411409</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.69543364556018</v>
+        <v>21.5532502340592</v>
       </c>
       <c r="G9">
-        <v>35.19066442004505</v>
+        <v>23.45140730769287</v>
       </c>
       <c r="H9">
-        <v>16.04607698675585</v>
+        <v>9.467422786068783</v>
       </c>
       <c r="I9">
-        <v>25.83133184152172</v>
+        <v>15.53981703287329</v>
       </c>
       <c r="J9">
-        <v>10.90569533590507</v>
+        <v>6.335007867636347</v>
       </c>
       <c r="K9">
-        <v>8.774677625495181</v>
+        <v>12.20678736445057</v>
       </c>
       <c r="L9">
-        <v>11.65030109678377</v>
+        <v>7.212452229779466</v>
       </c>
       <c r="M9">
-        <v>14.73251712971418</v>
+        <v>10.4987754512888</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.25116237293947</v>
+        <v>15.46033080557708</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.31058206263785</v>
+        <v>15.87964138697811</v>
       </c>
       <c r="C10">
-        <v>9.942989760780724</v>
+        <v>7.95221146159239</v>
       </c>
       <c r="D10">
-        <v>9.642485950419131</v>
+        <v>6.958377669839128</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.557827073758</v>
+        <v>21.6261091236839</v>
       </c>
       <c r="G10">
-        <v>35.00317429638197</v>
+        <v>23.49581903809776</v>
       </c>
       <c r="H10">
-        <v>15.97164699467459</v>
+        <v>9.325374131259341</v>
       </c>
       <c r="I10">
-        <v>25.6810411666647</v>
+        <v>15.21914655528567</v>
       </c>
       <c r="J10">
-        <v>10.87229876700462</v>
+        <v>6.243601118089827</v>
       </c>
       <c r="K10">
-        <v>9.11319897482937</v>
+        <v>13.07760244171406</v>
       </c>
       <c r="L10">
-        <v>11.65008275720949</v>
+        <v>7.378621459797724</v>
       </c>
       <c r="M10">
-        <v>14.82089143141419</v>
+        <v>11.07380705625575</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.11975678627591</v>
+        <v>15.29319484027329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.50657901795763</v>
+        <v>16.42665292159185</v>
       </c>
       <c r="C11">
-        <v>9.951551808233626</v>
+        <v>7.990406095184888</v>
       </c>
       <c r="D11">
-        <v>9.656929843106116</v>
+        <v>7.087724255313131</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.50185005425134</v>
+        <v>21.6790232411953</v>
       </c>
       <c r="G11">
-        <v>34.92673313044366</v>
+        <v>23.54645779208497</v>
       </c>
       <c r="H11">
-        <v>15.93993085597388</v>
+        <v>9.266236773270506</v>
       </c>
       <c r="I11">
-        <v>25.61678245482801</v>
+        <v>15.08419569152752</v>
       </c>
       <c r="J11">
-        <v>10.85786222024164</v>
+        <v>6.203255882333128</v>
       </c>
       <c r="K11">
-        <v>9.263500648499715</v>
+        <v>13.45523225894167</v>
       </c>
       <c r="L11">
-        <v>11.6512514029179</v>
+        <v>7.45562651355291</v>
       </c>
       <c r="M11">
-        <v>14.86241352469757</v>
+        <v>11.32839879725587</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.06439988978362</v>
+        <v>15.23061254616512</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.58012139541361</v>
+        <v>16.62929252373746</v>
       </c>
       <c r="C12">
-        <v>9.954839631059595</v>
+        <v>8.004966685441419</v>
       </c>
       <c r="D12">
-        <v>9.662576495430336</v>
+        <v>7.136468433368445</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.48160578986132</v>
+        <v>21.70201747514709</v>
       </c>
       <c r="G12">
-        <v>34.8990632164663</v>
+        <v>23.57023271571351</v>
       </c>
       <c r="H12">
-        <v>15.92822824021833</v>
+        <v>9.244667969017774</v>
       </c>
       <c r="I12">
-        <v>25.59303935511766</v>
+        <v>15.03475012796865</v>
       </c>
       <c r="J12">
-        <v>10.85250364071122</v>
+        <v>6.188152762672516</v>
       </c>
       <c r="K12">
-        <v>9.319836560963775</v>
+        <v>13.59554715984522</v>
       </c>
       <c r="L12">
-        <v>11.65187511616354</v>
+        <v>7.48497296346014</v>
       </c>
       <c r="M12">
-        <v>14.87831892049697</v>
+        <v>11.42373275467512</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.04407324848748</v>
+        <v>15.20896094687082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.56431386337275</v>
+        <v>16.58585012177032</v>
       </c>
       <c r="C13">
-        <v>9.954129529302175</v>
+        <v>8.001826505285948</v>
       </c>
       <c r="D13">
-        <v>9.661352562486185</v>
+        <v>7.125981650756027</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.48592335491269</v>
+        <v>21.69693197497335</v>
       </c>
       <c r="G13">
-        <v>34.90496558065119</v>
+        <v>23.56490435398208</v>
       </c>
       <c r="H13">
-        <v>15.9307349349768</v>
+        <v>9.249275873718217</v>
       </c>
       <c r="I13">
-        <v>25.59812661325674</v>
+        <v>15.04532393511986</v>
       </c>
       <c r="J13">
-        <v>10.85365290027383</v>
+        <v>6.191397766318272</v>
       </c>
       <c r="K13">
-        <v>9.307730150846449</v>
+        <v>13.56544755735556</v>
       </c>
       <c r="L13">
-        <v>11.65173274974433</v>
+        <v>7.478644661650318</v>
       </c>
       <c r="M13">
-        <v>14.87488544871101</v>
+        <v>11.40324965873515</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.04842267310392</v>
+        <v>15.21353111331754</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.51264333345341</v>
+        <v>16.44341422660784</v>
       </c>
       <c r="C14">
-        <v>9.951821392053812</v>
+        <v>7.991602065600027</v>
       </c>
       <c r="D14">
-        <v>9.657390865779975</v>
+        <v>7.091739435894969</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.50016544154845</v>
+        <v>21.68085509206084</v>
       </c>
       <c r="G14">
-        <v>34.92443109947855</v>
+        <v>23.5483203492581</v>
       </c>
       <c r="H14">
-        <v>15.93896191273839</v>
+        <v>9.264445533413147</v>
       </c>
       <c r="I14">
-        <v>25.61481726911771</v>
+        <v>15.08009403336842</v>
       </c>
       <c r="J14">
-        <v>10.85741920016839</v>
+        <v>6.202009854842136</v>
       </c>
       <c r="K14">
-        <v>9.268147329869686</v>
+        <v>13.46682997510825</v>
       </c>
       <c r="L14">
-        <v>11.6512990920637</v>
+        <v>7.458037226049631</v>
       </c>
       <c r="M14">
-        <v>14.86371847236604</v>
+        <v>11.33626387179603</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.0627148609332</v>
+        <v>15.22878956646712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.48090353270162</v>
+        <v>16.35558289392985</v>
       </c>
       <c r="C15">
-        <v>9.950413494868943</v>
+        <v>7.985351905398471</v>
       </c>
       <c r="D15">
-        <v>9.65498717898967</v>
+        <v>7.070733103429746</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.5090132679179</v>
+        <v>21.67139592065796</v>
       </c>
       <c r="G15">
-        <v>34.93652067784216</v>
+        <v>23.53876758138987</v>
       </c>
       <c r="H15">
-        <v>15.94404121834487</v>
+        <v>9.273846006108981</v>
       </c>
       <c r="I15">
-        <v>25.62511763154972</v>
+        <v>15.10161027417097</v>
       </c>
       <c r="J15">
-        <v>10.85974024890063</v>
+        <v>6.208532732347916</v>
       </c>
       <c r="K15">
-        <v>9.243824780871218</v>
+        <v>13.40607358577839</v>
       </c>
       <c r="L15">
-        <v>11.65105702281168</v>
+        <v>7.445438340005135</v>
       </c>
       <c r="M15">
-        <v>14.85690182327698</v>
+        <v>11.29509134674693</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.07155204649965</v>
+        <v>15.2384058254474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.29768191513495</v>
+        <v>15.84326105576393</v>
       </c>
       <c r="C16">
-        <v>9.942436641208722</v>
+        <v>7.949729020904376</v>
       </c>
       <c r="D16">
-        <v>9.641566953268978</v>
+        <v>6.949893658365061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.56161861603638</v>
+        <v>21.62305870150796</v>
       </c>
       <c r="G16">
-        <v>35.00834833550808</v>
+        <v>23.49314131256991</v>
       </c>
       <c r="H16">
-        <v>15.97376278875798</v>
+        <v>9.329352293416287</v>
       </c>
       <c r="I16">
-        <v>25.68532325917415</v>
+        <v>15.22819294176267</v>
       </c>
       <c r="J16">
-        <v>10.87325739823253</v>
+        <v>6.246262392280279</v>
       </c>
       <c r="K16">
-        <v>9.10329781095354</v>
+        <v>13.0525487786085</v>
       </c>
       <c r="L16">
-        <v>11.65003180040367</v>
+        <v>7.373615988949068</v>
       </c>
       <c r="M16">
-        <v>14.81820375475771</v>
+        <v>11.05702206290752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.12346345151116</v>
+        <v>15.29756491093624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.18414439907962</v>
+        <v>15.52091322571924</v>
       </c>
       <c r="C17">
-        <v>9.93762532317494</v>
+        <v>7.928050074735532</v>
       </c>
       <c r="D17">
-        <v>9.633652727643447</v>
+        <v>6.875384859539928</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.59558676923635</v>
+        <v>21.59855110599882</v>
       </c>
       <c r="G17">
-        <v>35.05468177565258</v>
+        <v>23.47310701981583</v>
       </c>
       <c r="H17">
-        <v>15.99254439236582</v>
+        <v>9.364832928834112</v>
       </c>
       <c r="I17">
-        <v>25.72330948687362</v>
+        <v>15.30870420594176</v>
       </c>
       <c r="J17">
-        <v>10.88174297207</v>
+        <v>6.269722796626179</v>
       </c>
       <c r="K17">
-        <v>9.01610701008843</v>
+        <v>12.83091263763616</v>
       </c>
       <c r="L17">
-        <v>11.64972680994607</v>
+        <v>7.32990524537361</v>
       </c>
       <c r="M17">
-        <v>14.79479627736466</v>
+        <v>10.90913108895478</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.15644166620653</v>
+        <v>15.33738045810223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.1184444148765</v>
+        <v>15.33253633288145</v>
       </c>
       <c r="C18">
-        <v>9.934888516995183</v>
+        <v>7.915645552402513</v>
       </c>
       <c r="D18">
-        <v>9.629218738461214</v>
+        <v>6.83240423585653</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.61574749367971</v>
+        <v>21.58630924603436</v>
       </c>
       <c r="G18">
-        <v>35.08216421507787</v>
+        <v>23.46443567551911</v>
       </c>
       <c r="H18">
-        <v>16.00354875849798</v>
+        <v>9.38575398871463</v>
       </c>
       <c r="I18">
-        <v>25.74554497975896</v>
+        <v>15.35603469052675</v>
       </c>
       <c r="J18">
-        <v>10.88669480792204</v>
+        <v>6.283333136278234</v>
       </c>
       <c r="K18">
-        <v>8.965612203959452</v>
+        <v>12.70169213956829</v>
       </c>
       <c r="L18">
-        <v>11.6496708078176</v>
+        <v>7.30489806644864</v>
       </c>
       <c r="M18">
-        <v>14.78145766736109</v>
+        <v>10.82341336546654</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.17582589722325</v>
+        <v>15.36154008187677</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.09613358768997</v>
+        <v>15.2682438900467</v>
       </c>
       <c r="C19">
-        <v>9.933967156309299</v>
+        <v>7.911456743126319</v>
       </c>
       <c r="D19">
-        <v>9.62773783305161</v>
+        <v>6.817831583228559</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.62268056317478</v>
+        <v>21.58247930838438</v>
       </c>
       <c r="G19">
-        <v>35.09161217773649</v>
+        <v>23.46198261382514</v>
       </c>
       <c r="H19">
-        <v>16.00730930218928</v>
+        <v>9.392924619382899</v>
       </c>
       <c r="I19">
-        <v>25.7531399918848</v>
+        <v>15.3722330941123</v>
       </c>
       <c r="J19">
-        <v>10.88838364955678</v>
+        <v>6.287961469537047</v>
       </c>
       <c r="K19">
-        <v>8.948457838994049</v>
+        <v>12.65764210391056</v>
       </c>
       <c r="L19">
-        <v>11.64967239141531</v>
+        <v>7.296454616783815</v>
       </c>
       <c r="M19">
-        <v>14.77696310850781</v>
+        <v>10.79428062185903</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.18246051312446</v>
+        <v>15.36993294923146</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.19627216500979</v>
+        <v>15.55553494488317</v>
       </c>
       <c r="C20">
-        <v>9.938134342942679</v>
+        <v>7.930351157488361</v>
       </c>
       <c r="D20">
-        <v>9.634483012682852</v>
+        <v>6.883329715016403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.59190630140314</v>
+        <v>21.60096723669526</v>
       </c>
       <c r="G20">
-        <v>35.04966329257713</v>
+        <v>23.47494291278101</v>
       </c>
       <c r="H20">
-        <v>15.9905241885409</v>
+        <v>9.361002546526027</v>
       </c>
       <c r="I20">
-        <v>25.71922575838396</v>
+        <v>15.30002721460201</v>
       </c>
       <c r="J20">
-        <v>10.88083230687315</v>
+        <v>6.267213357218171</v>
       </c>
       <c r="K20">
-        <v>9.025424689304968</v>
+        <v>12.85468659552383</v>
       </c>
       <c r="L20">
-        <v>11.64974692537045</v>
+        <v>7.334544575442731</v>
       </c>
       <c r="M20">
-        <v>14.7972751889327</v>
+        <v>10.92494262897553</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.15288801956042</v>
+        <v>15.33301094400307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.5278391110563</v>
+        <v>16.48537300124228</v>
       </c>
       <c r="C21">
-        <v>9.952498119428704</v>
+        <v>7.994602607141446</v>
       </c>
       <c r="D21">
-        <v>9.658549731459628</v>
+        <v>7.101803939985456</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.49595632389968</v>
+        <v>21.68549612528079</v>
       </c>
       <c r="G21">
-        <v>34.91867892275216</v>
+        <v>23.55306491991361</v>
       </c>
       <c r="H21">
-        <v>15.93653710561963</v>
+        <v>9.259967130515658</v>
       </c>
       <c r="I21">
-        <v>25.60989880372098</v>
+        <v>15.0698355005979</v>
       </c>
       <c r="J21">
-        <v>10.85631001285038</v>
+        <v>6.198888108889806</v>
       </c>
       <c r="K21">
-        <v>9.279789877542909</v>
+        <v>13.49586937712563</v>
       </c>
       <c r="L21">
-        <v>11.65142156039685</v>
+        <v>7.464085207043328</v>
       </c>
       <c r="M21">
-        <v>14.86699361230314</v>
+        <v>11.35596888072233</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.0584996414725</v>
+        <v>15.22425130905304</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.74056140365699</v>
+        <v>17.06685288846614</v>
       </c>
       <c r="C22">
-        <v>9.962150769448765</v>
+        <v>8.037160088234657</v>
       </c>
       <c r="D22">
-        <v>9.675309283138393</v>
+        <v>7.243193847026319</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.43880274083715</v>
+        <v>21.75802544332392</v>
       </c>
       <c r="G22">
-        <v>34.8405164718116</v>
+        <v>23.63102674719864</v>
       </c>
       <c r="H22">
-        <v>15.90304612498974</v>
+        <v>9.198764021353002</v>
       </c>
       <c r="I22">
-        <v>25.54188765361788</v>
+        <v>14.92909864758576</v>
       </c>
       <c r="J22">
-        <v>10.8409139053347</v>
+        <v>6.155250730004324</v>
       </c>
       <c r="K22">
-        <v>9.442631187443855</v>
+        <v>13.89926187797905</v>
       </c>
       <c r="L22">
-        <v>11.65357146437324</v>
+        <v>7.54982581577793</v>
       </c>
       <c r="M22">
-        <v>14.91361493384658</v>
+        <v>11.63138176547803</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.00051748972949</v>
+        <v>15.16515785037926</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.62741200482818</v>
+        <v>16.7588939346552</v>
       </c>
       <c r="C23">
-        <v>9.9569750464418</v>
+        <v>8.014395082360091</v>
       </c>
       <c r="D23">
-        <v>9.666271133467905</v>
+        <v>7.167871953668382</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.46879809449519</v>
+        <v>21.71769692257843</v>
       </c>
       <c r="G23">
-        <v>34.88155081907949</v>
+        <v>23.5868838668584</v>
       </c>
       <c r="H23">
-        <v>15.92075701589911</v>
+        <v>9.230974380826746</v>
       </c>
       <c r="I23">
-        <v>25.57787189251289</v>
+        <v>15.00329362088665</v>
       </c>
       <c r="J23">
-        <v>10.84907354066638</v>
+        <v>6.178448760691733</v>
       </c>
       <c r="K23">
-        <v>9.35604607611784</v>
+        <v>13.68540215587802</v>
       </c>
       <c r="L23">
-        <v>11.6523278460095</v>
+        <v>7.503971299974103</v>
       </c>
       <c r="M23">
-        <v>14.88863828811185</v>
+        <v>11.48498430731814</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.03112447764913</v>
+        <v>15.19556165166046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.19079052305799</v>
+        <v>15.53989198330629</v>
       </c>
       <c r="C24">
-        <v>9.937904123816578</v>
+        <v>7.929310654110636</v>
       </c>
       <c r="D24">
-        <v>9.634107279259243</v>
+        <v>6.879738292787101</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.59356827242474</v>
+        <v>21.59986915693379</v>
       </c>
       <c r="G24">
-        <v>35.05192951784501</v>
+        <v>23.47410405589445</v>
       </c>
       <c r="H24">
-        <v>15.99143687919657</v>
+        <v>9.362732636822049</v>
       </c>
       <c r="I24">
-        <v>25.72107077628305</v>
+        <v>15.30394683860935</v>
       </c>
       <c r="J24">
-        <v>10.88124379004678</v>
+        <v>6.268347492548795</v>
       </c>
       <c r="K24">
-        <v>9.021213307930385</v>
+        <v>12.84394399052529</v>
       </c>
       <c r="L24">
-        <v>11.64973745937068</v>
+        <v>7.332446750810849</v>
       </c>
       <c r="M24">
-        <v>14.79615410279952</v>
+        <v>10.917796385669</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.15449330057833</v>
+        <v>15.33498245675375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.70498801898848</v>
+        <v>14.1112926676327</v>
       </c>
       <c r="C25">
-        <v>9.918504324250042</v>
+        <v>7.84001106856798</v>
       </c>
       <c r="D25">
-        <v>9.603937836816906</v>
+        <v>6.564357806889855</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.75197230037421</v>
+        <v>21.54317307733124</v>
       </c>
       <c r="G25">
-        <v>35.26752682093635</v>
+        <v>23.46052100861005</v>
       </c>
       <c r="H25">
-        <v>16.07538955613201</v>
+        <v>9.524363803262187</v>
       </c>
       <c r="I25">
-        <v>25.89032597440346</v>
+        <v>15.66706241026962</v>
       </c>
       <c r="J25">
-        <v>10.91866705132892</v>
+        <v>6.369785289273448</v>
       </c>
       <c r="K25">
-        <v>8.647086134966191</v>
+        <v>11.86989962001529</v>
       </c>
       <c r="L25">
-        <v>11.65151307092506</v>
+        <v>7.1526256539105</v>
       </c>
       <c r="M25">
-        <v>14.70119423354038</v>
+        <v>10.28132765862761</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.30347184473472</v>
+        <v>15.53308282220344</v>
       </c>
     </row>
   </sheetData>
